--- a/src/test/java/excel/exportMoreTable.xlsx
+++ b/src/test/java/excel/exportMoreTable.xlsx
@@ -403,7 +403,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -428,7 +428,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
